--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3955.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3955.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.254038623197689</v>
+        <v>0.7286480665206909</v>
       </c>
       <c r="B1">
-        <v>2.386900037397799</v>
+        <v>1.595165014266968</v>
       </c>
       <c r="C1">
-        <v>6.649672048894449</v>
+        <v>3.931602716445923</v>
       </c>
       <c r="D1">
-        <v>3.034032865539482</v>
+        <v>1.329577803611755</v>
       </c>
       <c r="E1">
-        <v>1.356795189299729</v>
+        <v>0.7497053146362305</v>
       </c>
     </row>
   </sheetData>
